--- a/biology/Médecine/1134_en_santé_et_médecine/1134_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1134_en_santé_et_médecine/1134_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1134_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1134_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1134 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1134_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1134_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'empereur Jean II Comnène inaugure à Constantinople, en annexe du monastère du Christ Pantocrator, un hôpital de quatre-vingts lits avec un dispensaire pour les soins externes[1].
-Roger II, premier roi de Sicile, soumet à examen l'exercice de la médecine[2].
-Vers 1134 : fondation, quartier des Marolles à Bruxelles, d'une léproserie qui est à l'origine de l'actuel hôpital Saint-Pierre[3].
-1121-1134 : rédaction du Bestiaire de Philippe de Thaon qui contient la première occurrence connue du mot « médecine », employé sous la forme « medicine » et au sens de « médicament, remède[4] ».</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>L'empereur Jean II Comnène inaugure à Constantinople, en annexe du monastère du Christ Pantocrator, un hôpital de quatre-vingts lits avec un dispensaire pour les soins externes.
+Roger II, premier roi de Sicile, soumet à examen l'exercice de la médecine.
+Vers 1134 : fondation, quartier des Marolles à Bruxelles, d'une léproserie qui est à l'origine de l'actuel hôpital Saint-Pierre.
+1121-1134 : rédaction du Bestiaire de Philippe de Thaon qui contient la première occurrence connue du mot « médecine », employé sous la forme « medicine » et au sens de « médicament, remède ».</t>
         </is>
       </c>
     </row>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1134_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1134_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>« Dans le Kitab Rudjar (« Le Livre de Roger »), Al Idrisi précise que les médecins de Salerne sont sans rivaux dans toute la Méditerranée occidentale[5] ».</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>« Dans le Kitab Rudjar (« Le Livre de Roger »), Al Idrisi précise que les médecins de Salerne sont sans rivaux dans toute la Méditerranée occidentale ».</t>
         </is>
       </c>
     </row>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1134_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1134_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Personnalité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Fl. Robert, moine et médecin de l'abbaye Saint-Sauveur de Redon en Bretagne[6].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Fl. Robert, moine et médecin de l'abbaye Saint-Sauveur de Redon en Bretagne.</t>
         </is>
       </c>
     </row>
@@ -586,7 +604,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1134_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1134_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -604,9 +622,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1133 ou 1134 : Hildebert de Lavardin (né vers 1055), évêque du Mans, archevêque de Tours, versé dans l'art de guérir selon Dubreuil-Chambardel, ce que conteste Wickersheimer[7],[8].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1133 ou 1134 : Hildebert de Lavardin (né vers 1055), évêque du Mans, archevêque de Tours, versé dans l'art de guérir selon Dubreuil-Chambardel, ce que conteste Wickersheimer,.
 </t>
         </is>
       </c>
